--- a/fML기초/99_과제/3_제주맛집_크롤링_지도/files/Instagram_Crawling/4_3_locations.xlsx
+++ b/fML기초/99_과제/3_제주맛집_크롤링_지도/files/Instagram_Crawling/4_3_locations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="712">
   <si>
     <t>name_official</t>
   </si>
@@ -28,13 +28,2128 @@
     <t>인스타위치명</t>
   </si>
   <si>
-    <t>한라산 사라오름</t>
-  </si>
-  <si>
-    <t>126.570868431303</t>
-  </si>
-  <si>
-    <t>33.3718559201831</t>
+    <t>브릭캠퍼스 서울</t>
+  </si>
+  <si>
+    <t>아르코커피</t>
+  </si>
+  <si>
+    <t>페이스뮤직</t>
+  </si>
+  <si>
+    <t>루프탑카페 연무장</t>
+  </si>
+  <si>
+    <t>성수2가 1동주민센터</t>
+  </si>
+  <si>
+    <t>할아버지공장</t>
+  </si>
+  <si>
+    <t>칸토</t>
+  </si>
+  <si>
+    <t>서울숲</t>
+  </si>
+  <si>
+    <t>헤이보울</t>
+  </si>
+  <si>
+    <t>블루보틀 성수</t>
+  </si>
+  <si>
+    <t>옹근달</t>
+  </si>
+  <si>
+    <t>우란문화재단</t>
+  </si>
+  <si>
+    <t>성수연방</t>
+  </si>
+  <si>
+    <t>비비해이</t>
+  </si>
+  <si>
+    <t>이태리차차</t>
+  </si>
+  <si>
+    <t>커피사피엔스 성수현대테라스점</t>
+  </si>
+  <si>
+    <t>소바식당 성수점</t>
+  </si>
+  <si>
+    <t>김봉남포장마차 가로수길근처점</t>
+  </si>
+  <si>
+    <t>카페포제</t>
+  </si>
+  <si>
+    <t>성수다락</t>
+  </si>
+  <si>
+    <t>유어네임히얼</t>
+  </si>
+  <si>
+    <t>아모레성수</t>
+  </si>
+  <si>
+    <t>마이아트뮤지엄</t>
+  </si>
+  <si>
+    <t>청담동명품거리</t>
+  </si>
+  <si>
+    <t>신사복 창고매장</t>
+  </si>
+  <si>
+    <t>어니언</t>
+  </si>
+  <si>
+    <t>뚝도시장</t>
+  </si>
+  <si>
+    <t>키메네상점</t>
+  </si>
+  <si>
+    <t>제스티살룬</t>
+  </si>
+  <si>
+    <t>어반소스</t>
+  </si>
+  <si>
+    <t>쎈느</t>
+  </si>
+  <si>
+    <t>다로베 서울숲점</t>
+  </si>
+  <si>
+    <t>빅토리아베이커리</t>
+  </si>
+  <si>
+    <t>ㅊa</t>
+  </si>
+  <si>
+    <t>성수빈티지</t>
+  </si>
+  <si>
+    <t>시몬스 하드웨어 스토어</t>
+  </si>
+  <si>
+    <t>오토데포</t>
+  </si>
+  <si>
+    <t>온화 성수점</t>
+  </si>
+  <si>
+    <t>로스트 성수점</t>
+  </si>
+  <si>
+    <t>우디집</t>
+  </si>
+  <si>
+    <t>로우커피스탠드</t>
+  </si>
+  <si>
+    <t>하노이102</t>
+  </si>
+  <si>
+    <t>성수명당</t>
+  </si>
+  <si>
+    <t>누메로도스</t>
+  </si>
+  <si>
+    <t>오르에르</t>
+  </si>
+  <si>
+    <t>구욱희씨</t>
+  </si>
+  <si>
+    <t>핑거팁스</t>
+  </si>
+  <si>
+    <t>어디고 서울지사</t>
+  </si>
+  <si>
+    <t>호호식당 성수동점</t>
+  </si>
+  <si>
+    <t>서울숲카페거리</t>
+  </si>
+  <si>
+    <t>슈퍼말차 성수</t>
+  </si>
+  <si>
+    <t>세라 성수직영점</t>
+  </si>
+  <si>
+    <t>Bnhr coffee</t>
+  </si>
+  <si>
+    <t>준오헤어 건대역1호점</t>
+  </si>
+  <si>
+    <t>센터커피 명동점</t>
+  </si>
+  <si>
+    <t>헤이그라운드 서울숲점</t>
+  </si>
+  <si>
+    <t>식물관PH</t>
+  </si>
+  <si>
+    <t>커피한잔</t>
+  </si>
+  <si>
+    <t>린다비스타</t>
+  </si>
+  <si>
+    <t>쿠나</t>
+  </si>
+  <si>
+    <t>레몬그라스타이</t>
+  </si>
+  <si>
+    <t>EERT</t>
+  </si>
+  <si>
+    <t>성수골목</t>
+  </si>
+  <si>
+    <t>천상가옥</t>
+  </si>
+  <si>
+    <t>카멜 성수점</t>
+  </si>
+  <si>
+    <t>앤드밀</t>
+  </si>
+  <si>
+    <t>우동가조쿠</t>
+  </si>
+  <si>
+    <t>뉴트로성수</t>
+  </si>
+  <si>
+    <t>카페라잌유</t>
+  </si>
+  <si>
+    <t>공간와디즈</t>
+  </si>
+  <si>
+    <t>논탄토</t>
+  </si>
+  <si>
+    <t>성수역 2호선</t>
+  </si>
+  <si>
+    <t>호스팅하우스</t>
+  </si>
+  <si>
+    <t>낙원테산도 성수점</t>
+  </si>
+  <si>
+    <t>건대입구역 2호선</t>
+  </si>
+  <si>
+    <t>마를리</t>
+  </si>
+  <si>
+    <t>현대백화점 무역센터점</t>
+  </si>
+  <si>
+    <t>카페글로우</t>
+  </si>
+  <si>
+    <t>플디</t>
+  </si>
+  <si>
+    <t>타로스토리 성수점</t>
+  </si>
+  <si>
+    <t>가비당</t>
+  </si>
+  <si>
+    <t>하루앤원데이</t>
+  </si>
+  <si>
+    <t>화정다방</t>
+  </si>
+  <si>
+    <t>선데이사운즈</t>
+  </si>
+  <si>
+    <t>훔볼트</t>
+  </si>
+  <si>
+    <t>인천둘레길 2코스</t>
+  </si>
+  <si>
+    <t>올드나이브스</t>
+  </si>
+  <si>
+    <t>랑데자뷰 건대점</t>
+  </si>
+  <si>
+    <t>메가박스 성수</t>
+  </si>
+  <si>
+    <t>뚝섬역 2호선 4번출구</t>
+  </si>
+  <si>
+    <t>피자시즌</t>
+  </si>
+  <si>
+    <t>카페라니</t>
+  </si>
+  <si>
+    <t>에머이 성수점</t>
+  </si>
+  <si>
+    <t>전국어디서나전국이사몰</t>
+  </si>
+  <si>
+    <t>성수스타우트</t>
+  </si>
+  <si>
+    <t>카페얀</t>
+  </si>
+  <si>
+    <t>빙봉 이태원점</t>
+  </si>
+  <si>
+    <t>바스버거 성수점</t>
+  </si>
+  <si>
+    <t>메쉬커피</t>
+  </si>
+  <si>
+    <t>창원역</t>
+  </si>
+  <si>
+    <t>오브젝트 성수점</t>
+  </si>
+  <si>
+    <t>베케</t>
+  </si>
+  <si>
+    <t>뚝섬역 2호선</t>
+  </si>
+  <si>
+    <t>MOG</t>
+  </si>
+  <si>
+    <t>카페골목숲</t>
+  </si>
+  <si>
+    <t>앤디디</t>
+  </si>
+  <si>
+    <t>술있는식탁</t>
+  </si>
+  <si>
+    <t>모멘토브루어스</t>
+  </si>
+  <si>
+    <t>뚝섬한강공원</t>
+  </si>
+  <si>
+    <t>데어바타테</t>
+  </si>
+  <si>
+    <t>K현대미술관</t>
+  </si>
+  <si>
+    <t>카페씬</t>
+  </si>
+  <si>
+    <t>텐동요츠야</t>
+  </si>
+  <si>
+    <t>외가집</t>
+  </si>
+  <si>
+    <t>아임뮤트</t>
+  </si>
+  <si>
+    <t>거의끝집</t>
+  </si>
+  <si>
+    <t>큐뮬러스</t>
+  </si>
+  <si>
+    <t>명동거리</t>
+  </si>
+  <si>
+    <t>커피인터뷰</t>
+  </si>
+  <si>
+    <t>레드브릿지</t>
+  </si>
+  <si>
+    <t>인리치아이래쉬 성수본점</t>
+  </si>
+  <si>
+    <t>우정돈식당</t>
+  </si>
+  <si>
+    <t>영스데이</t>
+  </si>
+  <si>
+    <t>매드만조</t>
+  </si>
+  <si>
+    <t>달리아스파 건대점</t>
+  </si>
+  <si>
+    <t>마켓온오프 성수</t>
+  </si>
+  <si>
+    <t>필무드</t>
+  </si>
+  <si>
+    <t>오레노카츠</t>
+  </si>
+  <si>
+    <t>한국이슬람교 창원성원</t>
+  </si>
+  <si>
+    <t>토라식당</t>
+  </si>
+  <si>
+    <t>테그42 성수본점</t>
+  </si>
+  <si>
+    <t>포맨스</t>
+  </si>
+  <si>
+    <t>펍포레스트</t>
+  </si>
+  <si>
+    <t>오거트</t>
+  </si>
+  <si>
+    <t>어디가손세차장</t>
+  </si>
+  <si>
+    <t>평이담백뼈칼국수</t>
+  </si>
+  <si>
+    <t>남원시립김병종미술관</t>
+  </si>
+  <si>
+    <t>시너리</t>
+  </si>
+  <si>
+    <t>호텔포코 성수점</t>
+  </si>
+  <si>
+    <t>룹</t>
+  </si>
+  <si>
+    <t>다르시</t>
+  </si>
+  <si>
+    <t>한남동부군당</t>
+  </si>
+  <si>
+    <t>비에이치테이블</t>
+  </si>
+  <si>
+    <t>세스크멘슬 본점</t>
+  </si>
+  <si>
+    <t>SAISA</t>
+  </si>
+  <si>
+    <t>굿갓 팬스테이크&amp;파스타</t>
+  </si>
+  <si>
+    <t>상하목장</t>
+  </si>
+  <si>
+    <t>피크닉</t>
+  </si>
+  <si>
+    <t>데일리오아시스 샤로수길점</t>
+  </si>
+  <si>
+    <t>성수미술관</t>
+  </si>
+  <si>
+    <t>다포케</t>
+  </si>
+  <si>
+    <t>유어네이키드치즈</t>
+  </si>
+  <si>
+    <t>폴라앳홈</t>
+  </si>
+  <si>
+    <t>밤가시마을</t>
+  </si>
+  <si>
+    <t>중앙감속기</t>
+  </si>
+  <si>
+    <t>오후</t>
+  </si>
+  <si>
+    <t>나인원</t>
+  </si>
+  <si>
+    <t>빵의정석</t>
+  </si>
+  <si>
+    <t>담양IC</t>
+  </si>
+  <si>
+    <t>CONTEMPO빌딩</t>
+  </si>
+  <si>
+    <t>청담스케쥴</t>
+  </si>
+  <si>
+    <t>바위파스타바</t>
+  </si>
+  <si>
+    <t>오늘와인한잔</t>
+  </si>
+  <si>
+    <t>에젤커피</t>
+  </si>
+  <si>
+    <t>Daejeon제일공인중개사사무소</t>
+  </si>
+  <si>
+    <t>홍화돈</t>
+  </si>
+  <si>
+    <t>크리커</t>
+  </si>
+  <si>
+    <t>삼청동길</t>
+  </si>
+  <si>
+    <t>성수동갈비골목</t>
+  </si>
+  <si>
+    <t>온량</t>
+  </si>
+  <si>
+    <t>뉴욕뉴욕</t>
+  </si>
+  <si>
+    <t>조이보드카페</t>
+  </si>
+  <si>
+    <t>웍스아웃 서울압구정점</t>
+  </si>
+  <si>
+    <t>잇샐러드</t>
+  </si>
+  <si>
+    <t>카페오롯</t>
+  </si>
+  <si>
+    <t>5TO7</t>
+  </si>
+  <si>
+    <t>망원동티라미수 연남동점</t>
+  </si>
+  <si>
+    <t>여좌천</t>
+  </si>
+  <si>
+    <t>봄의정원</t>
+  </si>
+  <si>
+    <t>프라이데이무브먼트</t>
+  </si>
+  <si>
+    <t>매운향솥 본점</t>
+  </si>
+  <si>
+    <t>어디든집</t>
+  </si>
+  <si>
+    <t>레이더</t>
+  </si>
+  <si>
+    <t>안씨네쭈꾸미 성수점</t>
+  </si>
+  <si>
+    <t>퍼플교</t>
+  </si>
+  <si>
+    <t>에롤파</t>
+  </si>
+  <si>
+    <t>한옥카페차차</t>
+  </si>
+  <si>
+    <t>여음</t>
+  </si>
+  <si>
+    <t>탐광</t>
+  </si>
+  <si>
+    <t>하루나</t>
+  </si>
+  <si>
+    <t>해남식당</t>
+  </si>
+  <si>
+    <t>BNHR 성수점</t>
+  </si>
+  <si>
+    <t>빌런</t>
+  </si>
+  <si>
+    <t>캘리소프트서브</t>
+  </si>
+  <si>
+    <t>오키로북스 파크</t>
+  </si>
+  <si>
+    <t>127.04290967796628</t>
+  </si>
+  <si>
+    <t>127.053429525035</t>
+  </si>
+  <si>
+    <t>126.915848984951</t>
+  </si>
+  <si>
+    <t>127.053309270784</t>
+  </si>
+  <si>
+    <t>127.054035594083</t>
+  </si>
+  <si>
+    <t>127.054835558322</t>
+  </si>
+  <si>
+    <t>127.051530874739</t>
+  </si>
+  <si>
+    <t>127.037617759165</t>
+  </si>
+  <si>
+    <t>127.05508248800928</t>
+  </si>
+  <si>
+    <t>127.04564285335792</t>
+  </si>
+  <si>
+    <t>127.05299006599826</t>
+  </si>
+  <si>
+    <t>127.05428078521324</t>
+  </si>
+  <si>
+    <t>127.05695851079544</t>
+  </si>
+  <si>
+    <t>127.0609322922396</t>
+  </si>
+  <si>
+    <t>127.051055679631</t>
+  </si>
+  <si>
+    <t>127.053805668779</t>
+  </si>
+  <si>
+    <t>127.0550044286049</t>
+  </si>
+  <si>
+    <t>127.024859040201</t>
+  </si>
+  <si>
+    <t>127.05575119265147</t>
+  </si>
+  <si>
+    <t>127.056230968905</t>
+  </si>
+  <si>
+    <t>127.040022689001</t>
+  </si>
+  <si>
+    <t>127.059040730967</t>
+  </si>
+  <si>
+    <t>127.060581455539</t>
+  </si>
+  <si>
+    <t>127.046048046817</t>
+  </si>
+  <si>
+    <t>126.903139430223</t>
+  </si>
+  <si>
+    <t>127.05821260799398</t>
+  </si>
+  <si>
+    <t>127.054338052181</t>
+  </si>
+  <si>
+    <t>127.068109110495</t>
+  </si>
+  <si>
+    <t>127.04085558526258</t>
+  </si>
+  <si>
+    <t>127.051332566783</t>
+  </si>
+  <si>
+    <t>127.053446501853</t>
+  </si>
+  <si>
+    <t>127.042711798688</t>
+  </si>
+  <si>
+    <t>127.040629148252</t>
+  </si>
+  <si>
+    <t>127.124827032723</t>
+  </si>
+  <si>
+    <t>127.043267571492</t>
+  </si>
+  <si>
+    <t>127.446272733685</t>
+  </si>
+  <si>
+    <t>127.048942700007</t>
+  </si>
+  <si>
+    <t>127.05260942869523</t>
+  </si>
+  <si>
+    <t>127.055794286665</t>
+  </si>
+  <si>
+    <t>127.05099291898384</t>
+  </si>
+  <si>
+    <t>127.04663357436208</t>
+  </si>
+  <si>
+    <t>127.043553472904</t>
+  </si>
+  <si>
+    <t>127.062713160133</t>
+  </si>
+  <si>
+    <t>127.04736069202619</t>
+  </si>
+  <si>
+    <t>127.051377043091</t>
+  </si>
+  <si>
+    <t>127.041869477814</t>
+  </si>
+  <si>
+    <t>127.055110893987</t>
+  </si>
+  <si>
+    <t>127.056821824842</t>
+  </si>
+  <si>
+    <t>127.04391542788</t>
+  </si>
+  <si>
+    <t>127.043028992489</t>
+  </si>
+  <si>
+    <t>127.043722153527</t>
+  </si>
+  <si>
+    <t>127.056310217354</t>
+  </si>
+  <si>
+    <t>127.001457317516</t>
+  </si>
+  <si>
+    <t>127.07115901956539</t>
+  </si>
+  <si>
+    <t>126.986924592233</t>
+  </si>
+  <si>
+    <t>127.044177308783</t>
+  </si>
+  <si>
+    <t>127.094331083333</t>
+  </si>
+  <si>
+    <t>126.9679400412981</t>
+  </si>
+  <si>
+    <t>127.06196484910984</t>
+  </si>
+  <si>
+    <t>127.052742314001</t>
+  </si>
+  <si>
+    <t>127.02132001742319</t>
+  </si>
+  <si>
+    <t>127.04099944900322</t>
+  </si>
+  <si>
+    <t>127.043474671705</t>
+  </si>
+  <si>
+    <t>127.056906467695</t>
+  </si>
+  <si>
+    <t>127.055894041178</t>
+  </si>
+  <si>
+    <t>127.046934375299</t>
+  </si>
+  <si>
+    <t>127.042884423889</t>
+  </si>
+  <si>
+    <t>127.056429917064</t>
+  </si>
+  <si>
+    <t>127.04717376638</t>
+  </si>
+  <si>
+    <t>127.05052480325075</t>
+  </si>
+  <si>
+    <t>127.023886668047</t>
+  </si>
+  <si>
+    <t>127.056066999327</t>
+  </si>
+  <si>
+    <t>127.05492717342</t>
+  </si>
+  <si>
+    <t>127.043355370975</t>
+  </si>
+  <si>
+    <t>127.069202917341</t>
+  </si>
+  <si>
+    <t>127.054745135469</t>
+  </si>
+  <si>
+    <t>127.0598086324825</t>
+  </si>
+  <si>
+    <t>126.678012520818</t>
+  </si>
+  <si>
+    <t>127.048519334096</t>
+  </si>
+  <si>
+    <t>127.055070768309</t>
+  </si>
+  <si>
+    <t>127.049815772829</t>
+  </si>
+  <si>
+    <t>127.054283845345</t>
+  </si>
+  <si>
+    <t>126.832460453281</t>
+  </si>
+  <si>
+    <t>126.981550187644</t>
+  </si>
+  <si>
+    <t>127.055597468953</t>
+  </si>
+  <si>
+    <t>126.708057970044</t>
+  </si>
+  <si>
+    <t>127.043698279196</t>
+  </si>
+  <si>
+    <t>127.069192441561</t>
+  </si>
+  <si>
+    <t>127.04490810531418</t>
+  </si>
+  <si>
+    <t>127.048984872684</t>
+  </si>
+  <si>
+    <t>127.05690646495559</t>
+  </si>
+  <si>
+    <t>127.054174265043</t>
+  </si>
+  <si>
+    <t>127.05721509461205</t>
+  </si>
+  <si>
+    <t>127.146415690833</t>
+  </si>
+  <si>
+    <t>127.044345393817</t>
+  </si>
+  <si>
+    <t>129.203939529128</t>
+  </si>
+  <si>
+    <t>126.992274100843</t>
+  </si>
+  <si>
+    <t>127.046295736709</t>
+  </si>
+  <si>
+    <t>127.042453959446</t>
+  </si>
+  <si>
+    <t>128.606553084154</t>
+  </si>
+  <si>
+    <t>127.04131766923071</t>
+  </si>
+  <si>
+    <t>126.60492258733058</t>
+  </si>
+  <si>
+    <t>127.04738727881</t>
+  </si>
+  <si>
+    <t>127.05473303365602</t>
+  </si>
+  <si>
+    <t>126.98206668490285</t>
+  </si>
+  <si>
+    <t>127.041168056734</t>
+  </si>
+  <si>
+    <t>127.046377463688</t>
+  </si>
+  <si>
+    <t>127.041185016539</t>
+  </si>
+  <si>
+    <t>127.06892112991</t>
+  </si>
+  <si>
+    <t>127.056750139664</t>
+  </si>
+  <si>
+    <t>127.03913323759338</t>
+  </si>
+  <si>
+    <t>129.064614083788</t>
+  </si>
+  <si>
+    <t>126.954482892053</t>
+  </si>
+  <si>
+    <t>127.05149148298543</t>
+  </si>
+  <si>
+    <t>127.02514153552723</t>
+  </si>
+  <si>
+    <t>127.055639711221</t>
+  </si>
+  <si>
+    <t>127.05053684295356</t>
+  </si>
+  <si>
+    <t>126.984901336292</t>
+  </si>
+  <si>
+    <t>127.341306029317</t>
+  </si>
+  <si>
+    <t>126.9282191538652</t>
+  </si>
+  <si>
+    <t>127.04748166256906</t>
+  </si>
+  <si>
+    <t>127.055929146035</t>
+  </si>
+  <si>
+    <t>127.054202561957</t>
+  </si>
+  <si>
+    <t>126.925643944099</t>
+  </si>
+  <si>
+    <t>127.069491970625</t>
+  </si>
+  <si>
+    <t>127.0434624240097</t>
+  </si>
+  <si>
+    <t>126.912003129783</t>
+  </si>
+  <si>
+    <t>127.049517573532</t>
+  </si>
+  <si>
+    <t>128.674015728866</t>
+  </si>
+  <si>
+    <t>127.049378097819</t>
+  </si>
+  <si>
+    <t>127.053672237789</t>
+  </si>
+  <si>
+    <t>127.04338241159866</t>
+  </si>
+  <si>
+    <t>127.051982919805</t>
+  </si>
+  <si>
+    <t>127.04945208737</t>
+  </si>
+  <si>
+    <t>126.94203094468874</t>
+  </si>
+  <si>
+    <t>126.913889940044</t>
+  </si>
+  <si>
+    <t>127.38960334256944</t>
+  </si>
+  <si>
+    <t>127.045140497226</t>
+  </si>
+  <si>
+    <t>127.057043804328</t>
+  </si>
+  <si>
+    <t>127.049186437287</t>
+  </si>
+  <si>
+    <t>127.052883905212</t>
+  </si>
+  <si>
+    <t>127.00466563557</t>
+  </si>
+  <si>
+    <t>127.08078217024651</t>
+  </si>
+  <si>
+    <t>127.056407186023</t>
+  </si>
+  <si>
+    <t>127.047587127052</t>
+  </si>
+  <si>
+    <t>127.0486384288</t>
+  </si>
+  <si>
+    <t>126.451429013871</t>
+  </si>
+  <si>
+    <t>126.97812314817759</t>
+  </si>
+  <si>
+    <t>126.956590757608</t>
+  </si>
+  <si>
+    <t>127.054795978487</t>
+  </si>
+  <si>
+    <t>127.05391133400417</t>
+  </si>
+  <si>
+    <t>127.04761583226055</t>
+  </si>
+  <si>
+    <t>127.052181169277</t>
+  </si>
+  <si>
+    <t>126.777804321309</t>
+  </si>
+  <si>
+    <t>127.051084241076</t>
+  </si>
+  <si>
+    <t>127.043340032516</t>
+  </si>
+  <si>
+    <t>126.99868758985</t>
+  </si>
+  <si>
+    <t>127.04359817587863</t>
+  </si>
+  <si>
+    <t>126.979590105079</t>
+  </si>
+  <si>
+    <t>127.020624641356</t>
+  </si>
+  <si>
+    <t>127.042703080533</t>
+  </si>
+  <si>
+    <t>127.061566457128</t>
+  </si>
+  <si>
+    <t>127.1095492530017</t>
+  </si>
+  <si>
+    <t>127.057371850952</t>
+  </si>
+  <si>
+    <t>127.3701816330705</t>
+  </si>
+  <si>
+    <t>127.046350559703</t>
+  </si>
+  <si>
+    <t>127.444635202367</t>
+  </si>
+  <si>
+    <t>126.981743337459</t>
+  </si>
+  <si>
+    <t>127.044168799464</t>
+  </si>
+  <si>
+    <t>127.043440031512</t>
+  </si>
+  <si>
+    <t>126.922004497091</t>
+  </si>
+  <si>
+    <t>127.03871298279</t>
+  </si>
+  <si>
+    <t>127.03848214271389</t>
+  </si>
+  <si>
+    <t>127.05355242008956</t>
+  </si>
+  <si>
+    <t>127.049569846913</t>
+  </si>
+  <si>
+    <t>127.043321867062</t>
+  </si>
+  <si>
+    <t>126.925066022734</t>
+  </si>
+  <si>
+    <t>128.660414261631</t>
+  </si>
+  <si>
+    <t>127.047482019442</t>
+  </si>
+  <si>
+    <t>127.045034873904</t>
+  </si>
+  <si>
+    <t>127.06626440648117</t>
+  </si>
+  <si>
+    <t>126.391229669554</t>
+  </si>
+  <si>
+    <t>127.05402042061</t>
+  </si>
+  <si>
+    <t>127.054204467523</t>
+  </si>
+  <si>
+    <t>126.121636094523</t>
+  </si>
+  <si>
+    <t>127.049069604215</t>
+  </si>
+  <si>
+    <t>126.651893214898</t>
+  </si>
+  <si>
+    <t>127.043281442315</t>
+  </si>
+  <si>
+    <t>127.055411902856</t>
+  </si>
+  <si>
+    <t>127.05298512856578</t>
+  </si>
+  <si>
+    <t>127.048228606228</t>
+  </si>
+  <si>
+    <t>127.052651814064</t>
+  </si>
+  <si>
+    <t>127.049160282698</t>
+  </si>
+  <si>
+    <t>127.0436072402</t>
+  </si>
+  <si>
+    <t>37.545577319610814</t>
+  </si>
+  <si>
+    <t>37.5448882689356</t>
+  </si>
+  <si>
+    <t>37.5512791744838</t>
+  </si>
+  <si>
+    <t>37.542867381825</t>
+  </si>
+  <si>
+    <t>37.5395549767301</t>
+  </si>
+  <si>
+    <t>37.5410980207173</t>
+  </si>
+  <si>
+    <t>37.5434339989228</t>
+  </si>
+  <si>
+    <t>37.5443222301513</t>
+  </si>
+  <si>
+    <t>37.541450196679186</t>
+  </si>
+  <si>
+    <t>37.548088279686716</t>
+  </si>
+  <si>
+    <t>37.54271255358584</t>
+  </si>
+  <si>
+    <t>37.54376433464276</t>
+  </si>
+  <si>
+    <t>37.54139704871741</t>
+  </si>
+  <si>
+    <t>37.541249103192726</t>
+  </si>
+  <si>
+    <t>37.5435170972785</t>
+  </si>
+  <si>
+    <t>37.5439555639408</t>
+  </si>
+  <si>
+    <t>37.543011665300575</t>
+  </si>
+  <si>
+    <t>37.519497615662</t>
+  </si>
+  <si>
+    <t>37.54293653214302</t>
+  </si>
+  <si>
+    <t>37.5399251637352</t>
+  </si>
+  <si>
+    <t>37.5471001206878</t>
+  </si>
+  <si>
+    <t>37.5445477220243</t>
+  </si>
+  <si>
+    <t>37.5075914432752</t>
+  </si>
+  <si>
+    <t>37.5261262382238</t>
+  </si>
+  <si>
+    <t>37.4907184552829</t>
+  </si>
+  <si>
+    <t>37.54478599695387</t>
+  </si>
+  <si>
+    <t>37.5384772418798</t>
+  </si>
+  <si>
+    <t>37.5457790104378</t>
+  </si>
+  <si>
+    <t>37.54716110336998</t>
+  </si>
+  <si>
+    <t>37.5446666523304</t>
+  </si>
+  <si>
+    <t>37.5448927662487</t>
+  </si>
+  <si>
+    <t>37.5478199776599</t>
+  </si>
+  <si>
+    <t>37.5469485457655</t>
+  </si>
+  <si>
+    <t>37.3856383710853</t>
+  </si>
+  <si>
+    <t>37.5461186894426</t>
+  </si>
+  <si>
+    <t>37.197717225677</t>
+  </si>
+  <si>
+    <t>37.5446820830368</t>
+  </si>
+  <si>
+    <t>37.54530760175276</t>
+  </si>
+  <si>
+    <t>37.5430644537097</t>
+  </si>
+  <si>
+    <t>37.53776153756109</t>
+  </si>
+  <si>
+    <t>37.54715716085294</t>
+  </si>
+  <si>
+    <t>37.5473907947945</t>
+  </si>
+  <si>
+    <t>37.5410787829105</t>
+  </si>
+  <si>
+    <t>37.546356784437194</t>
+  </si>
+  <si>
+    <t>37.5435205618933</t>
+  </si>
+  <si>
+    <t>37.5471102922797</t>
+  </si>
+  <si>
+    <t>37.5431476665748</t>
+  </si>
+  <si>
+    <t>37.5073914865238</t>
+  </si>
+  <si>
+    <t>37.5471167570907</t>
+  </si>
+  <si>
+    <t>37.5464440372535</t>
+  </si>
+  <si>
+    <t>37.5475114662965</t>
+  </si>
+  <si>
+    <t>37.5429921288565</t>
+  </si>
+  <si>
+    <t>37.5371958978897</t>
+  </si>
+  <si>
+    <t>37.54012253980543</t>
+  </si>
+  <si>
+    <t>37.5647260878514</t>
+  </si>
+  <si>
+    <t>37.5479293603116</t>
+  </si>
+  <si>
+    <t>37.4826366596631</t>
+  </si>
+  <si>
+    <t>37.57706609381111</t>
+  </si>
+  <si>
+    <t>37.53925375225815</t>
+  </si>
+  <si>
+    <t>37.5443975333154</t>
+  </si>
+  <si>
+    <t>37.48536100210304</t>
+  </si>
+  <si>
+    <t>37.54743405615237</t>
+  </si>
+  <si>
+    <t>37.5461510493398</t>
+  </si>
+  <si>
+    <t>37.5414060838052</t>
+  </si>
+  <si>
+    <t>37.5372403433519</t>
+  </si>
+  <si>
+    <t>37.5468272760925</t>
+  </si>
+  <si>
+    <t>37.5568010637512</t>
+  </si>
+  <si>
+    <t>37.5396655808552</t>
+  </si>
+  <si>
+    <t>37.5460198856423</t>
+  </si>
+  <si>
+    <t>37.544930092473344</t>
+  </si>
+  <si>
+    <t>37.5209141930557</t>
+  </si>
+  <si>
+    <t>37.5445888153751</t>
+  </si>
+  <si>
+    <t>37.5395041093963</t>
+  </si>
+  <si>
+    <t>37.547270133855</t>
+  </si>
+  <si>
+    <t>37.5404084182632</t>
+  </si>
+  <si>
+    <t>37.5427802289338</t>
+  </si>
+  <si>
+    <t>37.50857933831633</t>
+  </si>
+  <si>
+    <t>37.4194018466714</t>
+  </si>
+  <si>
+    <t>37.5479294580028</t>
+  </si>
+  <si>
+    <t>37.5470535164798</t>
+  </si>
+  <si>
+    <t>37.5507328254881</t>
+  </si>
+  <si>
+    <t>37.544863552313</t>
+  </si>
+  <si>
+    <t>37.6392963646861</t>
+  </si>
+  <si>
+    <t>37.5474478415719</t>
+  </si>
+  <si>
+    <t>37.5401128716699</t>
+  </si>
+  <si>
+    <t>37.547416348083</t>
+  </si>
+  <si>
+    <t>37.5473222653849</t>
+  </si>
+  <si>
+    <t>37.541316632105</t>
+  </si>
+  <si>
+    <t>37.541886984099314</t>
+  </si>
+  <si>
+    <t>37.5468768992081</t>
+  </si>
+  <si>
+    <t>37.541402479807836</t>
+  </si>
+  <si>
+    <t>37.5435517477142</t>
+  </si>
+  <si>
+    <t>37.545483857798985</t>
+  </si>
+  <si>
+    <t>37.5421219048491</t>
+  </si>
+  <si>
+    <t>37.5470409124964</t>
+  </si>
+  <si>
+    <t>35.8557954231181</t>
+  </si>
+  <si>
+    <t>37.5401617468437</t>
+  </si>
+  <si>
+    <t>37.5461571849968</t>
+  </si>
+  <si>
+    <t>37.5481192022199</t>
+  </si>
+  <si>
+    <t>35.2575062903909</t>
+  </si>
+  <si>
+    <t>37.54786372164992</t>
+  </si>
+  <si>
+    <t>33.26190881355424</t>
+  </si>
+  <si>
+    <t>37.547241554679</t>
+  </si>
+  <si>
+    <t>37.54325235825022</t>
+  </si>
+  <si>
+    <t>37.58321025921711</t>
+  </si>
+  <si>
+    <t>37.547429492495</t>
+  </si>
+  <si>
+    <t>37.5465644044558</t>
+  </si>
+  <si>
+    <t>37.5474033576152</t>
+  </si>
+  <si>
+    <t>37.5292974433415</t>
+  </si>
+  <si>
+    <t>37.5426639544529</t>
+  </si>
+  <si>
+    <t>37.524349883168405</t>
+  </si>
+  <si>
+    <t>35.1552496493778</t>
+  </si>
+  <si>
+    <t>37.478953391547</t>
+  </si>
+  <si>
+    <t>37.54374305888836</t>
+  </si>
+  <si>
+    <t>37.52196810590861</t>
+  </si>
+  <si>
+    <t>37.5482326571023</t>
+  </si>
+  <si>
+    <t>37.539297037859875</t>
+  </si>
+  <si>
+    <t>37.5620769169639</t>
+  </si>
+  <si>
+    <t>36.3645744829947</t>
+  </si>
+  <si>
+    <t>37.773858496820615</t>
+  </si>
+  <si>
+    <t>37.53904602579363</t>
+  </si>
+  <si>
+    <t>37.5418246145697</t>
+  </si>
+  <si>
+    <t>37.5388737441929</t>
+  </si>
+  <si>
+    <t>37.5611750955618</t>
+  </si>
+  <si>
+    <t>37.5397487166459</t>
+  </si>
+  <si>
+    <t>37.54649523545645</t>
+  </si>
+  <si>
+    <t>37.7763125400684</t>
+  </si>
+  <si>
+    <t>37.5447359033199</t>
+  </si>
+  <si>
+    <t>35.2263142690358</t>
+  </si>
+  <si>
+    <t>37.5460081724542</t>
+  </si>
+  <si>
+    <t>37.5440853685614</t>
+  </si>
+  <si>
+    <t>37.547066498184584</t>
+  </si>
+  <si>
+    <t>37.5426048812973</t>
+  </si>
+  <si>
+    <t>37.5483813723846</t>
+  </si>
+  <si>
+    <t>37.55759470684954</t>
+  </si>
+  <si>
+    <t>37.554337550539</t>
+  </si>
+  <si>
+    <t>35.39867609059592</t>
+  </si>
+  <si>
+    <t>37.5444745659109</t>
+  </si>
+  <si>
+    <t>37.5434458804588</t>
+  </si>
+  <si>
+    <t>37.543644030586</t>
+  </si>
+  <si>
+    <t>37.5494088256076</t>
+  </si>
+  <si>
+    <t>37.5292345694785</t>
+  </si>
+  <si>
+    <t>37.53777374907963</t>
+  </si>
+  <si>
+    <t>37.5410333094744</t>
+  </si>
+  <si>
+    <t>37.5483190687988</t>
+  </si>
+  <si>
+    <t>37.7377739842011</t>
+  </si>
+  <si>
+    <t>35.4431619973327</t>
+  </si>
+  <si>
+    <t>37.556958192580645</t>
+  </si>
+  <si>
+    <t>37.4781468803909</t>
+  </si>
+  <si>
+    <t>37.5457679188565</t>
+  </si>
+  <si>
+    <t>37.54298153542346</t>
+  </si>
+  <si>
+    <t>37.54185438832984</t>
+  </si>
+  <si>
+    <t>37.5478053607514</t>
+  </si>
+  <si>
+    <t>37.6743118910357</t>
+  </si>
+  <si>
+    <t>37.5455749671444</t>
+  </si>
+  <si>
+    <t>37.5461862377943</t>
+  </si>
+  <si>
+    <t>37.5325863795484</t>
+  </si>
+  <si>
+    <t>37.54642670949195</t>
+  </si>
+  <si>
+    <t>35.2805628601953</t>
+  </si>
+  <si>
+    <t>37.5223239761109</t>
+  </si>
+  <si>
+    <t>37.524596692327</t>
+  </si>
+  <si>
+    <t>37.539122414633</t>
+  </si>
+  <si>
+    <t>37.321149810832466</t>
+  </si>
+  <si>
+    <t>37.546264046869</t>
+  </si>
+  <si>
+    <t>36.34671554341633</t>
+  </si>
+  <si>
+    <t>37.5469752705161</t>
+  </si>
+  <si>
+    <t>37.2825534526709</t>
+  </si>
+  <si>
+    <t>37.5906452023744</t>
+  </si>
+  <si>
+    <t>37.5469328588197</t>
+  </si>
+  <si>
+    <t>37.5469079011998</t>
+  </si>
+  <si>
+    <t>37.5302973166211</t>
+  </si>
+  <si>
+    <t>37.5265577473085</t>
+  </si>
+  <si>
+    <t>37.52644970250709</t>
+  </si>
+  <si>
+    <t>37.54584597529271</t>
+  </si>
+  <si>
+    <t>37.5484876408465</t>
+  </si>
+  <si>
+    <t>37.5460826295749</t>
+  </si>
+  <si>
+    <t>37.5596069959436</t>
+  </si>
+  <si>
+    <t>35.1622297838177</t>
+  </si>
+  <si>
+    <t>37.5413931303749</t>
+  </si>
+  <si>
+    <t>37.5494733479673</t>
+  </si>
+  <si>
+    <t>37.53914149590237</t>
+  </si>
+  <si>
+    <t>33.4681743856374</t>
+  </si>
+  <si>
+    <t>37.5436166901471</t>
+  </si>
+  <si>
+    <t>37.5477575973665</t>
+  </si>
+  <si>
+    <t>34.7174534139804</t>
+  </si>
+  <si>
+    <t>37.5380326524747</t>
+  </si>
+  <si>
+    <t>36.8825847680154</t>
+  </si>
+  <si>
+    <t>37.5466232437808</t>
+  </si>
+  <si>
+    <t>37.5431709516945</t>
+  </si>
+  <si>
+    <t>37.542131411099525</t>
+  </si>
+  <si>
+    <t>37.5463257991784</t>
+  </si>
+  <si>
+    <t>37.5444336136718</t>
+  </si>
+  <si>
+    <t>37.5382776868165</t>
+  </si>
+  <si>
+    <t>37.5464465281219</t>
+  </si>
+  <si>
+    <t>성수동</t>
+  </si>
+  <si>
+    <t>Arco  아르코</t>
+  </si>
+  <si>
+    <t>Seoul, Korea</t>
+  </si>
+  <si>
+    <t>연무장</t>
+  </si>
+  <si>
+    <t>성수동 성수2가</t>
+  </si>
+  <si>
+    <t>KANTO CAFE</t>
+  </si>
+  <si>
+    <t>서울숲 Seoul Forest Park</t>
+  </si>
+  <si>
+    <t>헤이보울 hey.bowl</t>
+  </si>
+  <si>
+    <t>블루보틀 Blue Bottle 성수</t>
+  </si>
+  <si>
+    <t>BBHAY</t>
+  </si>
+  <si>
+    <t>성수</t>
+  </si>
+  <si>
+    <t>커피사피엔스 성수점</t>
+  </si>
+  <si>
+    <t>소바식당</t>
+  </si>
+  <si>
+    <t>성수동근처</t>
+  </si>
+  <si>
+    <t>카페 포제 - cafe poze</t>
+  </si>
+  <si>
+    <t>뚝섬 미술관</t>
+  </si>
+  <si>
+    <t>청담동 Cheongdam dong</t>
+  </si>
+  <si>
+    <t>대림 창고</t>
+  </si>
+  <si>
+    <t>Cafe Onion</t>
+  </si>
+  <si>
+    <t>성수동뚝도시장</t>
+  </si>
+  <si>
+    <t>제스티살룬 Zesty Saloon</t>
+  </si>
+  <si>
+    <t>성수동 어반소스</t>
+  </si>
+  <si>
+    <t>쎈느 서울 성수</t>
+  </si>
+  <si>
+    <t>다로베darobe</t>
+  </si>
+  <si>
+    <t>빅토리아 베이커리</t>
+  </si>
+  <si>
+    <t>로스트 성수</t>
+  </si>
+  <si>
+    <t>성수동 우디집</t>
+  </si>
+  <si>
+    <t>Raw Coffee Stand</t>
+  </si>
+  <si>
+    <t>Hanoi102</t>
+  </si>
+  <si>
+    <t>orer 오르에르</t>
+  </si>
+  <si>
+    <t>뚝섬 어딘가</t>
+  </si>
+  <si>
+    <t>성수동 호호식당</t>
+  </si>
+  <si>
+    <t>성수동 카페거리</t>
+  </si>
+  <si>
+    <t>Super Matcha 슈퍼말차</t>
+  </si>
+  <si>
+    <t>세라성수점</t>
+  </si>
+  <si>
+    <t>BNHR</t>
+  </si>
+  <si>
+    <t>건대 스타시티 준오헤어</t>
+  </si>
+  <si>
+    <t>센터커피 - Center Coffee</t>
+  </si>
+  <si>
+    <t>헤이그라운드 서울숲</t>
+  </si>
+  <si>
+    <t>커피 한 잔</t>
+  </si>
+  <si>
+    <t>Kuna</t>
+  </si>
+  <si>
+    <t>레몬그라스 / lemongrass</t>
+  </si>
+  <si>
+    <t>Eert</t>
+  </si>
+  <si>
+    <t>성수동 어니언</t>
+  </si>
+  <si>
+    <t>카멜 커피</t>
+  </si>
+  <si>
+    <t>뉴트로 성수</t>
+  </si>
+  <si>
+    <t>공간 와디즈</t>
+  </si>
+  <si>
+    <t>Nontanto</t>
+  </si>
+  <si>
+    <t>성수역</t>
+  </si>
+  <si>
+    <t>Hosting House</t>
+  </si>
+  <si>
+    <t>낙원테산도성수</t>
+  </si>
+  <si>
+    <t>건대입구역</t>
+  </si>
+  <si>
+    <t>성수동1가</t>
+  </si>
+  <si>
+    <t>현대백화점</t>
+  </si>
+  <si>
+    <t>카페 글로우</t>
+  </si>
+  <si>
+    <t>성수동2가 289-230 타로스토리</t>
+  </si>
+  <si>
+    <t>가비당성수</t>
+  </si>
+  <si>
+    <t>하루앤원데이 Haru &amp; One Day</t>
+  </si>
+  <si>
+    <t>Humbolt</t>
+  </si>
+  <si>
+    <t>연희동</t>
+  </si>
+  <si>
+    <t>올드나이브스 성수</t>
+  </si>
+  <si>
+    <t>랑데자뷰 건대</t>
+  </si>
+  <si>
+    <t>뚝섬역4번출구</t>
+  </si>
+  <si>
+    <t>카페라니_cafe rani</t>
+  </si>
+  <si>
+    <t>하남어딘가</t>
+  </si>
+  <si>
+    <t>Bimbom</t>
+  </si>
+  <si>
+    <t>메쉬커피 Meshcoffee</t>
+  </si>
+  <si>
+    <t>Changwon</t>
+  </si>
+  <si>
+    <t>Veke</t>
+  </si>
+  <si>
+    <t>뚝섬역</t>
+  </si>
+  <si>
+    <t>서촌마을 골목</t>
+  </si>
+  <si>
+    <t>Ndd</t>
+  </si>
+  <si>
+    <t>Momento Brewers</t>
+  </si>
+  <si>
+    <t>Cafe Scene</t>
+  </si>
+  <si>
+    <t>텐동식당</t>
+  </si>
+  <si>
+    <t>Immute</t>
+  </si>
+  <si>
+    <t>cumulus</t>
+  </si>
+  <si>
+    <t>명동</t>
+  </si>
+  <si>
+    <t>Coffee Interview 커피인터뷰</t>
+  </si>
+  <si>
+    <t>Cafe &amp; Other</t>
+  </si>
+  <si>
+    <t>인리치아이래쉬</t>
+  </si>
+  <si>
+    <t>서울 건대입구</t>
+  </si>
+  <si>
+    <t>마켓온오프</t>
+  </si>
+  <si>
+    <t>Changwon, Korea</t>
+  </si>
+  <si>
+    <t>TEgg.42 - 테그42</t>
+  </si>
+  <si>
+    <t>연남동 어딘가</t>
+  </si>
+  <si>
+    <t>평이담백 뼈칼국수</t>
+  </si>
+  <si>
+    <t>남원시립 김병종 미술관</t>
+  </si>
+  <si>
+    <t>Scenery 시너리</t>
+  </si>
+  <si>
+    <t>Hotel Poco</t>
+  </si>
+  <si>
+    <t>Cafe Loop</t>
+  </si>
+  <si>
+    <t>한남동</t>
+  </si>
+  <si>
+    <t>세스크멘슬</t>
+  </si>
+  <si>
+    <t>Saisa</t>
+  </si>
+  <si>
+    <t>굿갓</t>
+  </si>
+  <si>
+    <t>피크닉 Piknic</t>
+  </si>
+  <si>
+    <t>폴라앳홈 스토어</t>
+  </si>
+  <si>
+    <t>서울숲 오후</t>
+  </si>
+  <si>
+    <t>나인원 한남</t>
+  </si>
+  <si>
+    <t>빵의 정석</t>
+  </si>
+  <si>
+    <t>Damyang</t>
+  </si>
+  <si>
+    <t>Contempo</t>
+  </si>
+  <si>
+    <t>스케줄청담</t>
+  </si>
+  <si>
+    <t>Ezer Coffee</t>
+  </si>
+  <si>
+    <t>Daejeon</t>
+  </si>
+  <si>
+    <t>삼청동길 Samcheongdong Gil</t>
+  </si>
+  <si>
+    <t>성수갈비골목</t>
+  </si>
+  <si>
+    <t>New York, New York</t>
+  </si>
+  <si>
+    <t>성수 카페조이</t>
+  </si>
+  <si>
+    <t>압구정 Apgujeong</t>
+  </si>
+  <si>
+    <t>카페.오롯 Cafe.orot</t>
+  </si>
+  <si>
+    <t>5to7</t>
+  </si>
+  <si>
+    <t>진해</t>
+  </si>
+  <si>
+    <t>성수 봄의정원</t>
+  </si>
+  <si>
+    <t>프라이데이 무브먼트</t>
+  </si>
+  <si>
+    <t>매운향솥</t>
+  </si>
+  <si>
+    <t>애월 어딘가</t>
+  </si>
+  <si>
+    <t>성수동 안씨네쭈꾸미</t>
+  </si>
+  <si>
+    <t>신안군 퍼플교</t>
+  </si>
+  <si>
+    <t>Erolpa - 에롤파</t>
+  </si>
+  <si>
+    <t>Cafe Cha</t>
+  </si>
+  <si>
+    <t>해남식당 성수동맛집</t>
+  </si>
+  <si>
+    <t>Bnhr 성수</t>
+  </si>
+  <si>
+    <t>성수동 빌런《villain》</t>
+  </si>
+  <si>
+    <t>캘리소프트서브 서울숲점</t>
   </si>
 </sst>
 </file>
@@ -392,7 +2507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,13 +2532,2827 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D3" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" t="s">
+        <v>395</v>
+      </c>
+      <c r="D4" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" t="s">
+        <v>396</v>
+      </c>
+      <c r="D5" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C6" t="s">
+        <v>397</v>
+      </c>
+      <c r="D6" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C7" t="s">
+        <v>398</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C8" t="s">
+        <v>399</v>
+      </c>
+      <c r="D8" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C9" t="s">
+        <v>400</v>
+      </c>
+      <c r="D9" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>207</v>
+      </c>
+      <c r="C10" t="s">
+        <v>401</v>
+      </c>
+      <c r="D10" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C11" t="s">
+        <v>402</v>
+      </c>
+      <c r="D11" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>209</v>
+      </c>
+      <c r="C12" t="s">
+        <v>403</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>210</v>
+      </c>
+      <c r="C13" t="s">
+        <v>404</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>211</v>
+      </c>
+      <c r="C14" t="s">
+        <v>405</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>212</v>
+      </c>
+      <c r="C15" t="s">
+        <v>406</v>
+      </c>
+      <c r="D15" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
         <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>199</v>
+      </c>
+      <c r="C16" t="s">
+        <v>393</v>
+      </c>
+      <c r="D16" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>213</v>
+      </c>
+      <c r="C17" t="s">
+        <v>407</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>214</v>
+      </c>
+      <c r="C18" t="s">
+        <v>408</v>
+      </c>
+      <c r="D18" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>206</v>
+      </c>
+      <c r="C19" t="s">
+        <v>400</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>215</v>
+      </c>
+      <c r="C20" t="s">
+        <v>409</v>
+      </c>
+      <c r="D20" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" t="s">
+        <v>410</v>
+      </c>
+      <c r="D21" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>217</v>
+      </c>
+      <c r="C22" t="s">
+        <v>411</v>
+      </c>
+      <c r="D22" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>218</v>
+      </c>
+      <c r="C23" t="s">
+        <v>412</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>219</v>
+      </c>
+      <c r="C24" t="s">
+        <v>413</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>220</v>
+      </c>
+      <c r="C25" t="s">
+        <v>414</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>221</v>
+      </c>
+      <c r="C26" t="s">
+        <v>415</v>
+      </c>
+      <c r="D26" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>222</v>
+      </c>
+      <c r="C27" t="s">
+        <v>416</v>
+      </c>
+      <c r="D27" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>223</v>
+      </c>
+      <c r="C28" t="s">
+        <v>417</v>
+      </c>
+      <c r="D28" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>224</v>
+      </c>
+      <c r="C29" t="s">
+        <v>418</v>
+      </c>
+      <c r="D29" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>225</v>
+      </c>
+      <c r="C30" t="s">
+        <v>419</v>
+      </c>
+      <c r="D30" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>226</v>
+      </c>
+      <c r="C31" t="s">
+        <v>420</v>
+      </c>
+      <c r="D31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>227</v>
+      </c>
+      <c r="C32" t="s">
+        <v>421</v>
+      </c>
+      <c r="D32" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>228</v>
+      </c>
+      <c r="C33" t="s">
+        <v>422</v>
+      </c>
+      <c r="D33" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>229</v>
+      </c>
+      <c r="C34" t="s">
+        <v>423</v>
+      </c>
+      <c r="D34" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>230</v>
+      </c>
+      <c r="C35" t="s">
+        <v>424</v>
+      </c>
+      <c r="D35" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>231</v>
+      </c>
+      <c r="C36" t="s">
+        <v>425</v>
+      </c>
+      <c r="D36" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>232</v>
+      </c>
+      <c r="C37" t="s">
+        <v>426</v>
+      </c>
+      <c r="D37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>233</v>
+      </c>
+      <c r="C38" t="s">
+        <v>427</v>
+      </c>
+      <c r="D38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>234</v>
+      </c>
+      <c r="C39" t="s">
+        <v>428</v>
+      </c>
+      <c r="D39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>235</v>
+      </c>
+      <c r="C40" t="s">
+        <v>429</v>
+      </c>
+      <c r="D40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>236</v>
+      </c>
+      <c r="C41" t="s">
+        <v>430</v>
+      </c>
+      <c r="D41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>237</v>
+      </c>
+      <c r="C42" t="s">
+        <v>431</v>
+      </c>
+      <c r="D42" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>238</v>
+      </c>
+      <c r="C43" t="s">
+        <v>432</v>
+      </c>
+      <c r="D43" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>239</v>
+      </c>
+      <c r="C44" t="s">
+        <v>433</v>
+      </c>
+      <c r="D44" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>240</v>
+      </c>
+      <c r="C45" t="s">
+        <v>434</v>
+      </c>
+      <c r="D45" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>241</v>
+      </c>
+      <c r="C46" t="s">
+        <v>435</v>
+      </c>
+      <c r="D46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>242</v>
+      </c>
+      <c r="C47" t="s">
+        <v>436</v>
+      </c>
+      <c r="D47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>243</v>
+      </c>
+      <c r="C48" t="s">
+        <v>437</v>
+      </c>
+      <c r="D48" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>244</v>
+      </c>
+      <c r="C49" t="s">
+        <v>438</v>
+      </c>
+      <c r="D49" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>245</v>
+      </c>
+      <c r="C50" t="s">
+        <v>439</v>
+      </c>
+      <c r="D50" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>246</v>
+      </c>
+      <c r="C51" t="s">
+        <v>440</v>
+      </c>
+      <c r="D51" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>247</v>
+      </c>
+      <c r="C52" t="s">
+        <v>441</v>
+      </c>
+      <c r="D52" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" t="s">
+        <v>248</v>
+      </c>
+      <c r="C53" t="s">
+        <v>442</v>
+      </c>
+      <c r="D53" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" t="s">
+        <v>249</v>
+      </c>
+      <c r="C54" t="s">
+        <v>443</v>
+      </c>
+      <c r="D54" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" t="s">
+        <v>250</v>
+      </c>
+      <c r="C55" t="s">
+        <v>444</v>
+      </c>
+      <c r="D55" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" t="s">
+        <v>251</v>
+      </c>
+      <c r="C56" t="s">
+        <v>445</v>
+      </c>
+      <c r="D56" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" t="s">
+        <v>252</v>
+      </c>
+      <c r="C57" t="s">
+        <v>446</v>
+      </c>
+      <c r="D57" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" t="s">
+        <v>253</v>
+      </c>
+      <c r="C58" t="s">
+        <v>447</v>
+      </c>
+      <c r="D58" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" t="s">
+        <v>254</v>
+      </c>
+      <c r="C59" t="s">
+        <v>448</v>
+      </c>
+      <c r="D59" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" t="s">
+        <v>255</v>
+      </c>
+      <c r="C60" t="s">
+        <v>449</v>
+      </c>
+      <c r="D60" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" t="s">
+        <v>256</v>
+      </c>
+      <c r="C61" t="s">
+        <v>450</v>
+      </c>
+      <c r="D61" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" t="s">
+        <v>257</v>
+      </c>
+      <c r="C62" t="s">
+        <v>451</v>
+      </c>
+      <c r="D62" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" t="s">
+        <v>258</v>
+      </c>
+      <c r="C63" t="s">
+        <v>452</v>
+      </c>
+      <c r="D63" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" t="s">
+        <v>259</v>
+      </c>
+      <c r="C64" t="s">
+        <v>453</v>
+      </c>
+      <c r="D64" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" t="s">
+        <v>200</v>
+      </c>
+      <c r="C65" t="s">
+        <v>394</v>
+      </c>
+      <c r="D65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>260</v>
+      </c>
+      <c r="C66" t="s">
+        <v>454</v>
+      </c>
+      <c r="D66" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>29</v>
+      </c>
+      <c r="B67" t="s">
+        <v>224</v>
+      </c>
+      <c r="C67" t="s">
+        <v>418</v>
+      </c>
+      <c r="D67" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>261</v>
+      </c>
+      <c r="C68" t="s">
+        <v>455</v>
+      </c>
+      <c r="D68" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>262</v>
+      </c>
+      <c r="C69" t="s">
+        <v>456</v>
+      </c>
+      <c r="D69" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>263</v>
+      </c>
+      <c r="C70" t="s">
+        <v>457</v>
+      </c>
+      <c r="D70" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>264</v>
+      </c>
+      <c r="C71" t="s">
+        <v>458</v>
+      </c>
+      <c r="D71" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>265</v>
+      </c>
+      <c r="C72" t="s">
+        <v>459</v>
+      </c>
+      <c r="D72" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>266</v>
+      </c>
+      <c r="C73" t="s">
+        <v>460</v>
+      </c>
+      <c r="D73" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>267</v>
+      </c>
+      <c r="C74" t="s">
+        <v>461</v>
+      </c>
+      <c r="D74" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>268</v>
+      </c>
+      <c r="C75" t="s">
+        <v>462</v>
+      </c>
+      <c r="D75" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>269</v>
+      </c>
+      <c r="C76" t="s">
+        <v>463</v>
+      </c>
+      <c r="D76" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>270</v>
+      </c>
+      <c r="C77" t="s">
+        <v>464</v>
+      </c>
+      <c r="D77" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>271</v>
+      </c>
+      <c r="C78" t="s">
+        <v>465</v>
+      </c>
+      <c r="D78" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>272</v>
+      </c>
+      <c r="C79" t="s">
+        <v>466</v>
+      </c>
+      <c r="D79" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>273</v>
+      </c>
+      <c r="C80" t="s">
+        <v>467</v>
+      </c>
+      <c r="D80" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>274</v>
+      </c>
+      <c r="C81" t="s">
+        <v>468</v>
+      </c>
+      <c r="D81" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>4</v>
+      </c>
+      <c r="B82" t="s">
+        <v>199</v>
+      </c>
+      <c r="C82" t="s">
+        <v>393</v>
+      </c>
+      <c r="D82" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>80</v>
+      </c>
+      <c r="B83" t="s">
+        <v>275</v>
+      </c>
+      <c r="C83" t="s">
+        <v>469</v>
+      </c>
+      <c r="D83" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>81</v>
+      </c>
+      <c r="B84" t="s">
+        <v>276</v>
+      </c>
+      <c r="C84" t="s">
+        <v>470</v>
+      </c>
+      <c r="D84" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>82</v>
+      </c>
+      <c r="B85" t="s">
+        <v>277</v>
+      </c>
+      <c r="C85" t="s">
+        <v>471</v>
+      </c>
+      <c r="D85" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>83</v>
+      </c>
+      <c r="B86" t="s">
+        <v>278</v>
+      </c>
+      <c r="C86" t="s">
+        <v>472</v>
+      </c>
+      <c r="D86" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>84</v>
+      </c>
+      <c r="B87" t="s">
+        <v>279</v>
+      </c>
+      <c r="C87" t="s">
+        <v>473</v>
+      </c>
+      <c r="D87" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>85</v>
+      </c>
+      <c r="B88" t="s">
+        <v>280</v>
+      </c>
+      <c r="C88" t="s">
+        <v>474</v>
+      </c>
+      <c r="D88" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>86</v>
+      </c>
+      <c r="B89" t="s">
+        <v>281</v>
+      </c>
+      <c r="C89" t="s">
+        <v>475</v>
+      </c>
+      <c r="D89" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>87</v>
+      </c>
+      <c r="B90" t="s">
+        <v>282</v>
+      </c>
+      <c r="C90" t="s">
+        <v>476</v>
+      </c>
+      <c r="D90" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>88</v>
+      </c>
+      <c r="B91" t="s">
+        <v>283</v>
+      </c>
+      <c r="C91" t="s">
+        <v>477</v>
+      </c>
+      <c r="D91" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>89</v>
+      </c>
+      <c r="B92" t="s">
+        <v>284</v>
+      </c>
+      <c r="C92" t="s">
+        <v>478</v>
+      </c>
+      <c r="D92" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>90</v>
+      </c>
+      <c r="B93" t="s">
+        <v>285</v>
+      </c>
+      <c r="C93" t="s">
+        <v>479</v>
+      </c>
+      <c r="D93" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>91</v>
+      </c>
+      <c r="B94" t="s">
+        <v>286</v>
+      </c>
+      <c r="C94" t="s">
+        <v>480</v>
+      </c>
+      <c r="D94" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>92</v>
+      </c>
+      <c r="B95" t="s">
+        <v>287</v>
+      </c>
+      <c r="C95" t="s">
+        <v>481</v>
+      </c>
+      <c r="D95" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>93</v>
+      </c>
+      <c r="B96" t="s">
+        <v>288</v>
+      </c>
+      <c r="C96" t="s">
+        <v>482</v>
+      </c>
+      <c r="D96" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>94</v>
+      </c>
+      <c r="B97" t="s">
+        <v>289</v>
+      </c>
+      <c r="C97" t="s">
+        <v>483</v>
+      </c>
+      <c r="D97" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>95</v>
+      </c>
+      <c r="B98" t="s">
+        <v>290</v>
+      </c>
+      <c r="C98" t="s">
+        <v>484</v>
+      </c>
+      <c r="D98" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>96</v>
+      </c>
+      <c r="B99" t="s">
+        <v>291</v>
+      </c>
+      <c r="C99" t="s">
+        <v>485</v>
+      </c>
+      <c r="D99" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>97</v>
+      </c>
+      <c r="B100" t="s">
+        <v>292</v>
+      </c>
+      <c r="C100" t="s">
+        <v>486</v>
+      </c>
+      <c r="D100" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>98</v>
+      </c>
+      <c r="B101" t="s">
+        <v>293</v>
+      </c>
+      <c r="C101" t="s">
+        <v>487</v>
+      </c>
+      <c r="D101" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>99</v>
+      </c>
+      <c r="B102" t="s">
+        <v>294</v>
+      </c>
+      <c r="C102" t="s">
+        <v>488</v>
+      </c>
+      <c r="D102" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>100</v>
+      </c>
+      <c r="B103" t="s">
+        <v>295</v>
+      </c>
+      <c r="C103" t="s">
+        <v>489</v>
+      </c>
+      <c r="D103" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>101</v>
+      </c>
+      <c r="B104" t="s">
+        <v>296</v>
+      </c>
+      <c r="C104" t="s">
+        <v>490</v>
+      </c>
+      <c r="D104" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>102</v>
+      </c>
+      <c r="B105" t="s">
+        <v>297</v>
+      </c>
+      <c r="C105" t="s">
+        <v>491</v>
+      </c>
+      <c r="D105" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>103</v>
+      </c>
+      <c r="B106" t="s">
+        <v>298</v>
+      </c>
+      <c r="C106" t="s">
+        <v>492</v>
+      </c>
+      <c r="D106" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>104</v>
+      </c>
+      <c r="B107" t="s">
+        <v>299</v>
+      </c>
+      <c r="C107" t="s">
+        <v>493</v>
+      </c>
+      <c r="D107" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>105</v>
+      </c>
+      <c r="B108" t="s">
+        <v>300</v>
+      </c>
+      <c r="C108" t="s">
+        <v>494</v>
+      </c>
+      <c r="D108" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>106</v>
+      </c>
+      <c r="B109" t="s">
+        <v>301</v>
+      </c>
+      <c r="C109" t="s">
+        <v>495</v>
+      </c>
+      <c r="D109" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>107</v>
+      </c>
+      <c r="B110" t="s">
+        <v>302</v>
+      </c>
+      <c r="C110" t="s">
+        <v>496</v>
+      </c>
+      <c r="D110" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>108</v>
+      </c>
+      <c r="B111" t="s">
+        <v>303</v>
+      </c>
+      <c r="C111" t="s">
+        <v>497</v>
+      </c>
+      <c r="D111" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>109</v>
+      </c>
+      <c r="B112" t="s">
+        <v>304</v>
+      </c>
+      <c r="C112" t="s">
+        <v>498</v>
+      </c>
+      <c r="D112" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>110</v>
+      </c>
+      <c r="B113" t="s">
+        <v>305</v>
+      </c>
+      <c r="C113" t="s">
+        <v>499</v>
+      </c>
+      <c r="D113" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>111</v>
+      </c>
+      <c r="B114" t="s">
+        <v>306</v>
+      </c>
+      <c r="C114" t="s">
+        <v>500</v>
+      </c>
+      <c r="D114" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>112</v>
+      </c>
+      <c r="B115" t="s">
+        <v>307</v>
+      </c>
+      <c r="C115" t="s">
+        <v>501</v>
+      </c>
+      <c r="D115" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>113</v>
+      </c>
+      <c r="B116" t="s">
+        <v>308</v>
+      </c>
+      <c r="C116" t="s">
+        <v>502</v>
+      </c>
+      <c r="D116" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>114</v>
+      </c>
+      <c r="B117" t="s">
+        <v>309</v>
+      </c>
+      <c r="C117" t="s">
+        <v>503</v>
+      </c>
+      <c r="D117" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>115</v>
+      </c>
+      <c r="B118" t="s">
+        <v>310</v>
+      </c>
+      <c r="C118" t="s">
+        <v>504</v>
+      </c>
+      <c r="D118" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>116</v>
+      </c>
+      <c r="B119" t="s">
+        <v>311</v>
+      </c>
+      <c r="C119" t="s">
+        <v>505</v>
+      </c>
+      <c r="D119" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>117</v>
+      </c>
+      <c r="B120" t="s">
+        <v>312</v>
+      </c>
+      <c r="C120" t="s">
+        <v>506</v>
+      </c>
+      <c r="D120" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>118</v>
+      </c>
+      <c r="B121" t="s">
+        <v>313</v>
+      </c>
+      <c r="C121" t="s">
+        <v>507</v>
+      </c>
+      <c r="D121" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>119</v>
+      </c>
+      <c r="B122" t="s">
+        <v>314</v>
+      </c>
+      <c r="C122" t="s">
+        <v>508</v>
+      </c>
+      <c r="D122" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>120</v>
+      </c>
+      <c r="B123" t="s">
+        <v>315</v>
+      </c>
+      <c r="C123" t="s">
+        <v>509</v>
+      </c>
+      <c r="D123" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>121</v>
+      </c>
+      <c r="B124" t="s">
+        <v>316</v>
+      </c>
+      <c r="C124" t="s">
+        <v>510</v>
+      </c>
+      <c r="D124" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>122</v>
+      </c>
+      <c r="B125" t="s">
+        <v>317</v>
+      </c>
+      <c r="C125" t="s">
+        <v>511</v>
+      </c>
+      <c r="D125" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>123</v>
+      </c>
+      <c r="B126" t="s">
+        <v>318</v>
+      </c>
+      <c r="C126" t="s">
+        <v>512</v>
+      </c>
+      <c r="D126" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>124</v>
+      </c>
+      <c r="B127" t="s">
+        <v>319</v>
+      </c>
+      <c r="C127" t="s">
+        <v>513</v>
+      </c>
+      <c r="D127" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>78</v>
+      </c>
+      <c r="B128" t="s">
+        <v>273</v>
+      </c>
+      <c r="C128" t="s">
+        <v>467</v>
+      </c>
+      <c r="D128" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>125</v>
+      </c>
+      <c r="B129" t="s">
+        <v>320</v>
+      </c>
+      <c r="C129" t="s">
+        <v>514</v>
+      </c>
+      <c r="D129" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>126</v>
+      </c>
+      <c r="B130" t="s">
+        <v>321</v>
+      </c>
+      <c r="C130" t="s">
+        <v>515</v>
+      </c>
+      <c r="D130" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>127</v>
+      </c>
+      <c r="B131" t="s">
+        <v>322</v>
+      </c>
+      <c r="C131" t="s">
+        <v>516</v>
+      </c>
+      <c r="D131" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>128</v>
+      </c>
+      <c r="B132" t="s">
+        <v>323</v>
+      </c>
+      <c r="C132" t="s">
+        <v>517</v>
+      </c>
+      <c r="D132" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>129</v>
+      </c>
+      <c r="B133" t="s">
+        <v>324</v>
+      </c>
+      <c r="C133" t="s">
+        <v>518</v>
+      </c>
+      <c r="D133" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>130</v>
+      </c>
+      <c r="B134" t="s">
+        <v>325</v>
+      </c>
+      <c r="C134" t="s">
+        <v>519</v>
+      </c>
+      <c r="D134" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>131</v>
+      </c>
+      <c r="B135" t="s">
+        <v>326</v>
+      </c>
+      <c r="C135" t="s">
+        <v>520</v>
+      </c>
+      <c r="D135" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>132</v>
+      </c>
+      <c r="B136" t="s">
+        <v>327</v>
+      </c>
+      <c r="C136" t="s">
+        <v>521</v>
+      </c>
+      <c r="D136" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>133</v>
+      </c>
+      <c r="B137" t="s">
+        <v>328</v>
+      </c>
+      <c r="C137" t="s">
+        <v>522</v>
+      </c>
+      <c r="D137" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>134</v>
+      </c>
+      <c r="B138" t="s">
+        <v>329</v>
+      </c>
+      <c r="C138" t="s">
+        <v>523</v>
+      </c>
+      <c r="D138" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>135</v>
+      </c>
+      <c r="B139" t="s">
+        <v>330</v>
+      </c>
+      <c r="C139" t="s">
+        <v>524</v>
+      </c>
+      <c r="D139" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>136</v>
+      </c>
+      <c r="B140" t="s">
+        <v>331</v>
+      </c>
+      <c r="C140" t="s">
+        <v>525</v>
+      </c>
+      <c r="D140" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>137</v>
+      </c>
+      <c r="B141" t="s">
+        <v>332</v>
+      </c>
+      <c r="C141" t="s">
+        <v>526</v>
+      </c>
+      <c r="D141" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>138</v>
+      </c>
+      <c r="B142" t="s">
+        <v>333</v>
+      </c>
+      <c r="C142" t="s">
+        <v>527</v>
+      </c>
+      <c r="D142" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
+        <v>139</v>
+      </c>
+      <c r="B143" t="s">
+        <v>334</v>
+      </c>
+      <c r="C143" t="s">
+        <v>528</v>
+      </c>
+      <c r="D143" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>140</v>
+      </c>
+      <c r="B144" t="s">
+        <v>335</v>
+      </c>
+      <c r="C144" t="s">
+        <v>529</v>
+      </c>
+      <c r="D144" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>141</v>
+      </c>
+      <c r="B145" t="s">
+        <v>336</v>
+      </c>
+      <c r="C145" t="s">
+        <v>530</v>
+      </c>
+      <c r="D145" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>142</v>
+      </c>
+      <c r="B146" t="s">
+        <v>337</v>
+      </c>
+      <c r="C146" t="s">
+        <v>531</v>
+      </c>
+      <c r="D146" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>143</v>
+      </c>
+      <c r="B147" t="s">
+        <v>338</v>
+      </c>
+      <c r="C147" t="s">
+        <v>532</v>
+      </c>
+      <c r="D147" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>144</v>
+      </c>
+      <c r="B148" t="s">
+        <v>339</v>
+      </c>
+      <c r="C148" t="s">
+        <v>533</v>
+      </c>
+      <c r="D148" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>145</v>
+      </c>
+      <c r="B149" t="s">
+        <v>340</v>
+      </c>
+      <c r="C149" t="s">
+        <v>534</v>
+      </c>
+      <c r="D149" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>146</v>
+      </c>
+      <c r="B150" t="s">
+        <v>341</v>
+      </c>
+      <c r="C150" t="s">
+        <v>535</v>
+      </c>
+      <c r="D150" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>147</v>
+      </c>
+      <c r="B151" t="s">
+        <v>342</v>
+      </c>
+      <c r="C151" t="s">
+        <v>536</v>
+      </c>
+      <c r="D151" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>148</v>
+      </c>
+      <c r="B152" t="s">
+        <v>343</v>
+      </c>
+      <c r="C152" t="s">
+        <v>537</v>
+      </c>
+      <c r="D152" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>149</v>
+      </c>
+      <c r="B153" t="s">
+        <v>344</v>
+      </c>
+      <c r="C153" t="s">
+        <v>538</v>
+      </c>
+      <c r="D153" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
+        <v>150</v>
+      </c>
+      <c r="B154" t="s">
+        <v>345</v>
+      </c>
+      <c r="C154" t="s">
+        <v>539</v>
+      </c>
+      <c r="D154" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>151</v>
+      </c>
+      <c r="B155" t="s">
+        <v>346</v>
+      </c>
+      <c r="C155" t="s">
+        <v>540</v>
+      </c>
+      <c r="D155" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>152</v>
+      </c>
+      <c r="B156" t="s">
+        <v>347</v>
+      </c>
+      <c r="C156" t="s">
+        <v>541</v>
+      </c>
+      <c r="D156" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
+        <v>153</v>
+      </c>
+      <c r="B157" t="s">
+        <v>348</v>
+      </c>
+      <c r="C157" t="s">
+        <v>542</v>
+      </c>
+      <c r="D157" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>154</v>
+      </c>
+      <c r="B158" t="s">
+        <v>349</v>
+      </c>
+      <c r="C158" t="s">
+        <v>543</v>
+      </c>
+      <c r="D158" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>155</v>
+      </c>
+      <c r="B159" t="s">
+        <v>350</v>
+      </c>
+      <c r="C159" t="s">
+        <v>544</v>
+      </c>
+      <c r="D159" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>156</v>
+      </c>
+      <c r="B160" t="s">
+        <v>351</v>
+      </c>
+      <c r="C160" t="s">
+        <v>545</v>
+      </c>
+      <c r="D160" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>157</v>
+      </c>
+      <c r="B161" t="s">
+        <v>352</v>
+      </c>
+      <c r="C161" t="s">
+        <v>546</v>
+      </c>
+      <c r="D161" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>158</v>
+      </c>
+      <c r="B162" t="s">
+        <v>353</v>
+      </c>
+      <c r="C162" t="s">
+        <v>547</v>
+      </c>
+      <c r="D162" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>159</v>
+      </c>
+      <c r="B163" t="s">
+        <v>354</v>
+      </c>
+      <c r="C163" t="s">
+        <v>548</v>
+      </c>
+      <c r="D163" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
+        <v>160</v>
+      </c>
+      <c r="B164" t="s">
+        <v>355</v>
+      </c>
+      <c r="C164" t="s">
+        <v>549</v>
+      </c>
+      <c r="D164" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
+        <v>161</v>
+      </c>
+      <c r="B165" t="s">
+        <v>356</v>
+      </c>
+      <c r="C165" t="s">
+        <v>550</v>
+      </c>
+      <c r="D165" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
+        <v>162</v>
+      </c>
+      <c r="B166" t="s">
+        <v>357</v>
+      </c>
+      <c r="C166" t="s">
+        <v>551</v>
+      </c>
+      <c r="D166" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
+        <v>163</v>
+      </c>
+      <c r="B167" t="s">
+        <v>358</v>
+      </c>
+      <c r="C167" t="s">
+        <v>552</v>
+      </c>
+      <c r="D167" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
+        <v>164</v>
+      </c>
+      <c r="B168" t="s">
+        <v>359</v>
+      </c>
+      <c r="C168" t="s">
+        <v>553</v>
+      </c>
+      <c r="D168" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" t="s">
+        <v>165</v>
+      </c>
+      <c r="B169" t="s">
+        <v>360</v>
+      </c>
+      <c r="C169" t="s">
+        <v>554</v>
+      </c>
+      <c r="D169" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" t="s">
+        <v>166</v>
+      </c>
+      <c r="B170" t="s">
+        <v>361</v>
+      </c>
+      <c r="C170" t="s">
+        <v>555</v>
+      </c>
+      <c r="D170" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" t="s">
+        <v>167</v>
+      </c>
+      <c r="B171" t="s">
+        <v>362</v>
+      </c>
+      <c r="C171" t="s">
+        <v>556</v>
+      </c>
+      <c r="D171" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" t="s">
+        <v>168</v>
+      </c>
+      <c r="B172" t="s">
+        <v>363</v>
+      </c>
+      <c r="C172" t="s">
+        <v>557</v>
+      </c>
+      <c r="D172" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" t="s">
+        <v>169</v>
+      </c>
+      <c r="B173" t="s">
+        <v>364</v>
+      </c>
+      <c r="C173" t="s">
+        <v>558</v>
+      </c>
+      <c r="D173" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" t="s">
+        <v>170</v>
+      </c>
+      <c r="B174" t="s">
+        <v>365</v>
+      </c>
+      <c r="C174" t="s">
+        <v>559</v>
+      </c>
+      <c r="D174" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" t="s">
+        <v>171</v>
+      </c>
+      <c r="B175" t="s">
+        <v>366</v>
+      </c>
+      <c r="C175" t="s">
+        <v>560</v>
+      </c>
+      <c r="D175" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" t="s">
+        <v>172</v>
+      </c>
+      <c r="B176" t="s">
+        <v>367</v>
+      </c>
+      <c r="C176" t="s">
+        <v>561</v>
+      </c>
+      <c r="D176" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" t="s">
+        <v>173</v>
+      </c>
+      <c r="B177" t="s">
+        <v>368</v>
+      </c>
+      <c r="C177" t="s">
+        <v>562</v>
+      </c>
+      <c r="D177" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" t="s">
+        <v>174</v>
+      </c>
+      <c r="B178" t="s">
+        <v>369</v>
+      </c>
+      <c r="C178" t="s">
+        <v>563</v>
+      </c>
+      <c r="D178" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" t="s">
+        <v>175</v>
+      </c>
+      <c r="B179" t="s">
+        <v>370</v>
+      </c>
+      <c r="C179" t="s">
+        <v>564</v>
+      </c>
+      <c r="D179" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" t="s">
+        <v>176</v>
+      </c>
+      <c r="B180" t="s">
+        <v>371</v>
+      </c>
+      <c r="C180" t="s">
+        <v>565</v>
+      </c>
+      <c r="D180" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" t="s">
+        <v>177</v>
+      </c>
+      <c r="B181" t="s">
+        <v>372</v>
+      </c>
+      <c r="C181" t="s">
+        <v>566</v>
+      </c>
+      <c r="D181" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" t="s">
+        <v>178</v>
+      </c>
+      <c r="B182" t="s">
+        <v>373</v>
+      </c>
+      <c r="C182" t="s">
+        <v>567</v>
+      </c>
+      <c r="D182" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" t="s">
+        <v>179</v>
+      </c>
+      <c r="B183" t="s">
+        <v>374</v>
+      </c>
+      <c r="C183" t="s">
+        <v>568</v>
+      </c>
+      <c r="D183" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" t="s">
+        <v>180</v>
+      </c>
+      <c r="B184" t="s">
+        <v>375</v>
+      </c>
+      <c r="C184" t="s">
+        <v>569</v>
+      </c>
+      <c r="D184" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" t="s">
+        <v>181</v>
+      </c>
+      <c r="B185" t="s">
+        <v>376</v>
+      </c>
+      <c r="C185" t="s">
+        <v>570</v>
+      </c>
+      <c r="D185" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" t="s">
+        <v>182</v>
+      </c>
+      <c r="B186" t="s">
+        <v>377</v>
+      </c>
+      <c r="C186" t="s">
+        <v>571</v>
+      </c>
+      <c r="D186" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" t="s">
+        <v>183</v>
+      </c>
+      <c r="B187" t="s">
+        <v>378</v>
+      </c>
+      <c r="C187" t="s">
+        <v>572</v>
+      </c>
+      <c r="D187" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" t="s">
+        <v>184</v>
+      </c>
+      <c r="B188" t="s">
+        <v>379</v>
+      </c>
+      <c r="C188" t="s">
+        <v>573</v>
+      </c>
+      <c r="D188" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" t="s">
+        <v>185</v>
+      </c>
+      <c r="B189" t="s">
+        <v>380</v>
+      </c>
+      <c r="C189" t="s">
+        <v>574</v>
+      </c>
+      <c r="D189" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" t="s">
+        <v>186</v>
+      </c>
+      <c r="B190" t="s">
+        <v>381</v>
+      </c>
+      <c r="C190" t="s">
+        <v>575</v>
+      </c>
+      <c r="D190" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" t="s">
+        <v>187</v>
+      </c>
+      <c r="B191" t="s">
+        <v>382</v>
+      </c>
+      <c r="C191" t="s">
+        <v>576</v>
+      </c>
+      <c r="D191" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" t="s">
+        <v>188</v>
+      </c>
+      <c r="B192" t="s">
+        <v>383</v>
+      </c>
+      <c r="C192" t="s">
+        <v>577</v>
+      </c>
+      <c r="D192" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" t="s">
+        <v>189</v>
+      </c>
+      <c r="B193" t="s">
+        <v>384</v>
+      </c>
+      <c r="C193" t="s">
+        <v>578</v>
+      </c>
+      <c r="D193" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" t="s">
+        <v>190</v>
+      </c>
+      <c r="B194" t="s">
+        <v>385</v>
+      </c>
+      <c r="C194" t="s">
+        <v>579</v>
+      </c>
+      <c r="D194" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" t="s">
+        <v>191</v>
+      </c>
+      <c r="B195" t="s">
+        <v>386</v>
+      </c>
+      <c r="C195" t="s">
+        <v>580</v>
+      </c>
+      <c r="D195" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" t="s">
+        <v>192</v>
+      </c>
+      <c r="B196" t="s">
+        <v>387</v>
+      </c>
+      <c r="C196" t="s">
+        <v>581</v>
+      </c>
+      <c r="D196" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" t="s">
+        <v>193</v>
+      </c>
+      <c r="B197" t="s">
+        <v>388</v>
+      </c>
+      <c r="C197" t="s">
+        <v>582</v>
+      </c>
+      <c r="D197" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" t="s">
+        <v>194</v>
+      </c>
+      <c r="B198" t="s">
+        <v>389</v>
+      </c>
+      <c r="C198" t="s">
+        <v>583</v>
+      </c>
+      <c r="D198" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" t="s">
+        <v>195</v>
+      </c>
+      <c r="B199" t="s">
+        <v>390</v>
+      </c>
+      <c r="C199" t="s">
+        <v>584</v>
+      </c>
+      <c r="D199" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" t="s">
+        <v>196</v>
+      </c>
+      <c r="B200" t="s">
+        <v>391</v>
+      </c>
+      <c r="C200" t="s">
+        <v>585</v>
+      </c>
+      <c r="D200" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" t="s">
+        <v>197</v>
+      </c>
+      <c r="B201" t="s">
+        <v>392</v>
+      </c>
+      <c r="C201" t="s">
+        <v>586</v>
+      </c>
+      <c r="D201" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" t="s">
+        <v>198</v>
+      </c>
+      <c r="B202" t="s">
+        <v>297</v>
+      </c>
+      <c r="C202" t="s">
+        <v>491</v>
+      </c>
+      <c r="D202" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" t="s">
+        <v>12</v>
+      </c>
+      <c r="B203" t="s">
+        <v>207</v>
+      </c>
+      <c r="C203" t="s">
+        <v>401</v>
+      </c>
+      <c r="D203" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
